--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
@@ -74,6 +74,33 @@
   <si>
     <t>委案信息查询和管理：删除确定、取消按钮；表格中的选择为多选，点击导出后根据筛选项导出表中的全部委案信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每进入一个页面都需要刷新为最新的状态，比如导入成功200条委案后，进入我的工作台，已导入委案数应该显示为最新的</t>
+  </si>
+  <si>
+    <t>委案列表的表格，每页显示50条，最好可以让用户自定义，如果麻烦就算了</t>
+  </si>
+  <si>
+    <t>作为业务员登录后，委案信息查询和管理的筛选项应添加分配给我的和全部，默认为分配给我的；如果是内勤，则增加我分配的和全部，默认为我分配的</t>
+  </si>
+  <si>
+    <t>作为业务员登录后，委案详情页面仅显示工作记录、电话访谈和委案咨询，其他不显示</t>
+  </si>
+  <si>
+    <t>作为内勤登录，委案详情页面仅显示设为工作中、设为已退案、修改回款额、修改附件属性，其他不显示</t>
+  </si>
+  <si>
+    <t>作为业务员和内勤登录，右上角未读消息列表，当点击查看全部或某一条信息后，则这些就不再作为未读消息在右上角显示了</t>
+  </si>
+  <si>
+    <t>作为业务员登录，同上，当未接来电列表被点击后，也需要不再显示这些未接来电</t>
+  </si>
+  <si>
+    <t>业务员登录后，咨询回复列表里面不需要显示附件，直接让用户点击前往在委案详情中查看</t>
+  </si>
+  <si>
+    <t>业务员的我的工作台，已接受委案和未完成委案数量显示不出来</t>
   </si>
 </sst>
 </file>
@@ -237,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,12 +289,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,9 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -844,11 +875,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1"/>
@@ -861,6 +892,78 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>16</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>16</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>16</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>16</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -19,88 +19,98 @@
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
   <si>
+    <t>导入委案，导入成功后没有提示多少条</t>
+  </si>
+  <si>
+    <t>选择附件空间Drop。。。需要改为中文</t>
+  </si>
+  <si>
+    <t>导入委案成功后跳转到导入委案的第一步</t>
+  </si>
+  <si>
+    <t>导入完成后，再次重新进入后，之前导入的文件页面不刷新，应该展示导入的第一步</t>
+  </si>
+  <si>
+    <t>委案信息查询和管理：左上角，单个分类，点击后页面需要跟着刷新；增加查询按钮，点击查询后根据输入的查询项进行查询；委外状态下拉列表默认为全部；</t>
+  </si>
+  <si>
+    <t>所有表格的样式都需要修改。</t>
+  </si>
+  <si>
+    <t>委案表中，将委案编号作为主键</t>
+  </si>
+  <si>
+    <t>导入的excel模板，删除序号、委案编号、批次号、委外状态、备注这些字段，因为这些字段均为系统自动生成</t>
+  </si>
+  <si>
+    <t>呼入电话关联委案时，用户点击关联，弹出对话框，输入委案编号，点击关联后将电话记录和委案进行关联</t>
+  </si>
+  <si>
+    <t>委案列表中，删除序号列</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入委案右下角按钮需要改为中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案信息查询中，点击信贷，筛选项应该为客户号，车贷为车牌号，信用卡为卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案信息查询和管理：删除确定、取消按钮；表格中的选择为多选，点击导出后根据筛选项导出表中的全部委案信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理层可以查看所有委案详情，但委案详情中仅可以看，不能修改任何内容，把所有按钮隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每进入一个页面都需要刷新为最新的状态，比如导入成功200条委案后，进入我的工作台，已导入委案数应该显示为最新的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案列表的表格，每页显示50条，最好可以让用户自定义，如果麻烦就算了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为业务员登录后，委案信息查询和管理的筛选项应添加分配给我的和全部，默认为分配给我的；如果是内勤，则增加我分配的和全部，默认为我分配的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为业务员登录后，委案详情页面仅显示工作记录、电话访谈和委案咨询，其他不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为内勤登录，委案详情页面仅显示设为工作中、设为已退案、修改回款额、修改附件属性，其他不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为业务员和内勤登录，右上角未读消息列表，当点击查看全部或某一条信息后，则这些就不再作为未读消息在右上角显示了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为业务员登录，同上，当未接来电列表被点击后，也需要不再显示这些未接来电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录后，咨询回复列表里面不需要显示附件，直接让用户点击前往在委案详情中查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员的我的工作台，已接受委案和未完成委案数量显示不出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>点击退出登录后，登录窗口UI布局异常，用户名和密码框变窄</t>
-  </si>
-  <si>
-    <t>导入委案，导入成功后没有提示多少条</t>
-  </si>
-  <si>
-    <t>选择附件空间Drop。。。需要改为中文</t>
-  </si>
-  <si>
-    <t>导入委案成功后跳转到导入委案的第一步</t>
-  </si>
-  <si>
-    <t>导入完成后，再次重新进入后，之前导入的文件页面不刷新，应该展示导入的第一步</t>
-  </si>
-  <si>
-    <t>委案信息查询和管理：左上角，单个分类，点击后页面需要跟着刷新；增加查询按钮，点击查询后根据输入的查询项进行查询；委外状态下拉列表默认为全部；</t>
-  </si>
-  <si>
-    <t>所有表格的样式都需要修改。</t>
-  </si>
-  <si>
-    <t>委案表中，将委案编号作为主键</t>
-  </si>
-  <si>
-    <t>导入的excel模板，删除序号、委案编号、批次号、委外状态、备注这些字段，因为这些字段均为系统自动生成</t>
-  </si>
-  <si>
-    <t>呼入电话关联委案时，用户点击关联，弹出对话框，输入委案编号，点击关联后将电话记录和委案进行关联</t>
-  </si>
-  <si>
-    <t>委案列表中，删除序号列</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理层可以查看所有委案详情，但委案详情中仅可以看，不能修改任何内容，把所有按钮隐藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入委案右下角按钮需要改为中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委案信息查询中，点击信贷，筛选项应该为客户号，车贷为车牌号，信用卡为卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委案信息查询和管理：删除确定、取消按钮；表格中的选择为多选，点击导出后根据筛选项导出表中的全部委案信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每进入一个页面都需要刷新为最新的状态，比如导入成功200条委案后，进入我的工作台，已导入委案数应该显示为最新的</t>
-  </si>
-  <si>
-    <t>委案列表的表格，每页显示50条，最好可以让用户自定义，如果麻烦就算了</t>
-  </si>
-  <si>
-    <t>作为业务员登录后，委案信息查询和管理的筛选项应添加分配给我的和全部，默认为分配给我的；如果是内勤，则增加我分配的和全部，默认为我分配的</t>
-  </si>
-  <si>
-    <t>作为业务员登录后，委案详情页面仅显示工作记录、电话访谈和委案咨询，其他不显示</t>
-  </si>
-  <si>
-    <t>作为内勤登录，委案详情页面仅显示设为工作中、设为已退案、修改回款额、修改附件属性，其他不显示</t>
-  </si>
-  <si>
-    <t>作为业务员和内勤登录，右上角未读消息列表，当点击查看全部或某一条信息后，则这些就不再作为未读消息在右上角显示了</t>
-  </si>
-  <si>
-    <t>作为业务员登录，同上，当未接来电列表被点击后，也需要不再显示这些未接来电</t>
-  </si>
-  <si>
-    <t>业务员登录后，咨询回复列表里面不需要显示附件，直接让用户点击前往在委案详情中查看</t>
-  </si>
-  <si>
-    <t>业务员的我的工作台，已接受委案和未完成委案数量显示不出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -136,7 +146,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +162,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,12 +287,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -297,6 +295,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -603,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,10 +618,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -625,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -659,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -672,11 +676,11 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -693,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -710,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -727,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -744,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -761,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -778,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -795,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -812,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -829,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -846,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -863,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -880,7 +884,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -893,75 +897,75 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12" t="s">
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>16</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>16</v>
-      </c>
-      <c r="B21" s="12" t="s">
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>16</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>16</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>16</v>
-      </c>
-      <c r="B23" s="12" t="s">
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>16</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>16</v>
-      </c>
-      <c r="B24" s="12" t="s">
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>16</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>16</v>
-      </c>
-      <c r="B25" s="12" t="s">
+    <row r="26" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>16</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>16</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
@@ -110,6 +110,14 @@
   </si>
   <si>
     <t>点击退出登录后，登录窗口UI布局异常，用户名和密码框变窄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角的按钮只保留左右面的那个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,92 +183,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -268,38 +201,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -316,6 +252,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8201025" y="6591300"/>
+          <a:ext cx="1504950" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,33 +601,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="146.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.375" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -645,10 +643,10 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -659,13 +657,13 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -676,13 +674,13 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -696,10 +694,10 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -713,10 +711,10 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -730,10 +728,10 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -747,10 +745,10 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -760,14 +758,14 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -778,13 +776,13 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -798,10 +796,10 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -815,10 +813,10 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -832,10 +830,10 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -845,14 +843,14 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -866,10 +864,10 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -883,10 +881,10 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -896,81 +894,191 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <v>16</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
+      <c r="B26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
@@ -113,11 +113,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左上角的按钮只保留左右面的那个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案列表里面的委外日期精确到天即可，不用分十秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入后，委外状态默认填入未分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委外信息查询和维护表格页面，针对内勤，增加删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是不好用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角的按钮只保留右面的两个，删除四向箭头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案列表里不需要显示备注，备注就是委案详情的工作记录，在委案详情中显示即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +173,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -212,7 +245,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -234,9 +266,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -603,7 +639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -612,21 +650,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2"/>
@@ -640,10 +678,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
@@ -657,10 +695,10 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2"/>
@@ -674,13 +712,15 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -691,10 +731,10 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
@@ -708,10 +748,10 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
@@ -725,10 +765,10 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3"/>
@@ -742,10 +782,10 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
@@ -759,10 +799,10 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
@@ -776,10 +816,10 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
@@ -793,10 +833,10 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3"/>
@@ -810,10 +850,10 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
@@ -827,10 +867,10 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3"/>
@@ -844,10 +884,10 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3"/>
@@ -861,10 +901,10 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="3"/>
@@ -878,10 +918,10 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="3"/>
@@ -895,185 +935,193 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -263,9 +263,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -273,6 +270,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -639,9 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -715,10 +713,10 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="1"/>
@@ -935,193 +933,193 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="9"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="9"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="C40" s="13"/>
+      <c r="C40" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>委案列表里不需要显示备注，备注就是委案详情的工作记录，在委案详情中显示即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户后，登录提示500，数据库中用户的status值为空，填上0就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内勤通过委案咨询列表无法进入到委案详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内勤人员我的工作台，未回复数量不正确，应该和列表中最后一列有按钮的数量一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1062,21 +1076,27 @@
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -285,6 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -651,9 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -953,7 +952,7 @@
       <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -962,7 +961,7 @@
       <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -971,7 +970,7 @@
       <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
@@ -980,7 +979,7 @@
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -989,7 +988,7 @@
       <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -998,7 +997,7 @@
       <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -1007,7 +1006,7 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
@@ -1016,7 +1015,7 @@
       <c r="B25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
@@ -1025,7 +1024,7 @@
       <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -1034,7 +1033,7 @@
       <c r="B27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -1043,7 +1042,7 @@
       <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
@@ -1052,7 +1051,7 @@
       <c r="B29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -1061,7 +1060,7 @@
       <c r="B30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
@@ -1070,34 +1069,34 @@
       <c r="B31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8">

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,15 +185,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,17 +262,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -672,13 +656,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -726,10 +710,10 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="1"/>
@@ -949,196 +933,196 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="12"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="9"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="9"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="C40" s="12"/>
+      <c r="C40" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
@@ -150,6 +150,142 @@
   </si>
   <si>
     <t>内勤人员我的工作台，未回复数量不正确，应该和列表中最后一列有按钮的数量一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录，创建新用户后，点击我的工作台，员工数不刷新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案信息查询和维护增加查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案信息查询和维护在内勤和管理员登录时，增加删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案信息查询和维护，在内勤和管理员登录时，增加导出按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员具备内勤的权限的话，在委案详情中具备内勤的所有权限，如果方便就修改。修改的时候电话详细说下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案详情页面，如果没有工作记录或者委案咨询，也要显示时间轴，添加一个暂无的节点timeline-node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内勤登录，分配委案页面，点击左上角的三类委案按钮，页面不跟着刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqgrid每页显示的数量能否增加100，如果技术上可行并且不难就加上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内勤登录，分配委案页面，如果某条委案已经被分配，那么不应显示，也就是说，分配委案第一步，列表显示的是目前导入的，但未分配的全部的委案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内勤登录，委案信息查询和维护，删除委案需要提示是否确定要删除，点击是再删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内勤登录，已经被分配的委案，状态应该自动修改为工作中，目前点击导出或者查看委案列表，已经分配的委案状态还是未分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案状态统一修改为：未分配、工作中、已结案，相关的都修正下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上角客户头像上面的修改头像删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题默认设置为倒数第二个颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内勤统一用一个头像、业务员统一用一个头像、管理员统一为一个头像，具体头像先随便定一个，后续我再修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面，修改为截图的样子，参考LoanMgr\doc\截图\登录.png，里面的图片在background.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案详情中增加字段身份证归属地，取身份证号前4位，有对应关系，稍后我整理出来，放到一个key value的表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案详情中，剩余金额后面增加分配内勤：&lt;负责分配这个委案的内勤人员姓名&gt;和责任业务员：&lt;分配给的业务员姓名&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案详情中，内勤登陆后，设为工作中和已退案后，状态不跟着变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案详情中，内勤登录后，修改回款额，弹出框中两个输入框的默认值为当前委案的已还金额和剩余金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案详情中，内勤登陆后，修改回款额，数字修改并确定后，两个金额不更新，页面不刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内勤登录，我的工作台，在不同tab间切换过程中，没有loading提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，我的工作台，分配给该业务员的某些委案已经被内勤设置为已退案，但未完成委案数量不减少，未完成委案数量应该为全部分配给我的委案-已退案的委案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，委案信息查询和维护需要增加查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，未按信息查询和维护，筛选项为已结案时，查询不到已退案的委案。另外，已结案应该叫已退案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，我的工作台，未结案的委案修改为未完成的委案，目前工作中的委案不能再这个tab页中显示出来，虽然有工作中的委案，但是表格里为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，委案详情工作汇报不稳定，不传附件问题不大，只要有附件就失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，委案详情，电话访谈弹出框，电话号码默认为委案联系人的号码，这个需要针对三类委案我们确定下取哪个字段，如果业务员不修改电话号，那么点击呼叫按钮直接拨出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，委案详情，电话访谈弹出框，点击拨打按钮后，按钮置灰，并在拨打和挂断按钮中间显示：接通中，通话中xx秒，已结束，共拨打xx秒，电话录音上传中。因为无法挂断电话，上传不了电话催收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉工作台中的委案列表上面虽然没有筛选项，但是还是用了其他页面中的删选项，问题59好像就是因为在委案信息维护页面，筛选项选择了状态为已退案的，导致回到我的工作台页面后，这些表格里面还是没有东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，在委案详情页面，提交完委案咨询后，点击我的工作台，待回复委案咨询数字不刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫中心，每个tab上面的一行话是当时需求需要说明，现在可以删掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫中心，呼出电话，点击委案编码，弹出测试对话框4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫中心，关联委案失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,9 +770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1086,43 +1224,307 @@
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="10"/>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="10"/>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="10"/>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
@@ -286,13 +286,29 @@
   </si>
   <si>
     <t>呼叫中心，关联委案失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个页面数据是一次将多个Tab的数据都加载了，所以tab切换不需要重新获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个得跟实际才能调，因为目前回调事件都没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个需要确认下字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传附件需要开启ftp服务器，默认是连得我的办公机器的ftp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,7 +338,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -406,6 +428,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,7 +468,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -484,7 +518,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -559,6 +593,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -594,6 +645,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -772,14 +840,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="96.375" customWidth="1"/>
-    <col min="3" max="3" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="47.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -1221,37 +1290,37 @@
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="10"/>
@@ -1266,10 +1335,10 @@
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="10"/>
@@ -1284,73 +1353,73 @@
       <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="10"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="10"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="10"/>
@@ -1374,28 +1443,28 @@
       <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="10"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="10"/>
@@ -1410,46 +1479,48 @@
       <c r="C55" s="10"/>
     </row>
     <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+      <c r="A56" s="14">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="10"/>
     </row>
     <row r="60" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="10"/>
@@ -1461,7 +1532,9 @@
       <c r="B61" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
@@ -1470,7 +1543,9 @@
       <c r="B62" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
@@ -1479,7 +1554,9 @@
       <c r="B63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -1491,28 +1568,28 @@
       <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="10"/>
     </row>
     <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C66" s="10"/>
     </row>
     <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="10"/>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
   <si>
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
@@ -285,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呼叫中心，关联委案失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个页面数据是一次将多个Tab的数据都加载了，所以tab切换不需要重新获取数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,18 +293,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这个需要确认下字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传附件需要开启ftp服务器，默认是连得我的办公机器的ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车贷：客户手机；信用卡：手机号码；信贷：手机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，点击右上角的未接来电通知后，呼叫中心里面的呼叫记录都没了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫中心，关联委案失败，关联失败后，呼叫中心的未关联委案的电话记录消失了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +342,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,12 +358,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -427,12 +425,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,7 +463,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -518,7 +510,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,23 +585,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -645,23 +620,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -897,13 +855,13 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1296,7 +1254,7 @@
       <c r="B35" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
@@ -1305,7 +1263,7 @@
       <c r="B36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
@@ -1314,7 +1272,7 @@
       <c r="B37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
@@ -1323,7 +1281,7 @@
       <c r="B38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -1341,7 +1299,7 @@
       <c r="B40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
@@ -1359,7 +1317,7 @@
       <c r="B42" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
@@ -1368,7 +1326,7 @@
       <c r="B43" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
@@ -1377,7 +1335,7 @@
       <c r="B44" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
@@ -1386,7 +1344,7 @@
       <c r="B45" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
@@ -1395,7 +1353,7 @@
       <c r="B46" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
@@ -1404,7 +1362,7 @@
       <c r="B47" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
@@ -1413,7 +1371,7 @@
       <c r="B48" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
@@ -1422,7 +1380,7 @@
       <c r="B49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
@@ -1449,7 +1407,7 @@
       <c r="B52" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
@@ -1458,7 +1416,7 @@
       <c r="B53" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
@@ -1467,7 +1425,7 @@
       <c r="B54" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
@@ -1479,14 +1437,14 @@
       <c r="C55" s="10"/>
     </row>
     <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>71</v>
+      <c r="C56" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -1496,7 +1454,7 @@
       <c r="B57" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
@@ -1505,7 +1463,7 @@
       <c r="B58" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
@@ -1514,7 +1472,7 @@
       <c r="B59" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
@@ -1523,17 +1481,17 @@
       <c r="B60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="10"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>74</v>
+      <c r="C61" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -1555,17 +1513,17 @@
         <v>65</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="10"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
@@ -1574,7 +1532,7 @@
       <c r="B65" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
@@ -1583,7 +1541,7 @@
       <c r="B66" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
@@ -1592,16 +1550,116 @@
       <c r="B67" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="10"/>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
@@ -798,9 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1302,10 +1300,10 @@
       <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="10"/>
@@ -1392,10 +1390,10 @@
       <c r="C50" s="10"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="10"/>
@@ -1495,13 +1493,13 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1553,19 +1551,19 @@
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C69" s="10"/>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -463,7 +463,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -798,7 +798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1381,10 +1383,10 @@
       <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="10"/>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -463,7 +463,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1308,7 +1308,7 @@
       <c r="B41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
@@ -1389,7 +1389,7 @@
       <c r="B50" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
@@ -1398,7 +1398,7 @@
       <c r="B51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
@@ -1559,7 +1559,7 @@
       <c r="B68" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
@@ -1568,7 +1568,7 @@
       <c r="B69" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="8">

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -245,67 +245,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>业务员登录，未按信息查询和维护，筛选项为已结案时，查询不到已退案的委案。另外，已结案应该叫已退案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，我的工作台，未结案的委案修改为未完成的委案，目前工作中的委案不能再这个tab页中显示出来，虽然有工作中的委案，但是表格里为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，委案详情工作汇报不稳定，不传附件问题不大，只要有附件就失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，委案详情，电话访谈弹出框，电话号码默认为委案联系人的号码，这个需要针对三类委案我们确定下取哪个字段，如果业务员不修改电话号，那么点击呼叫按钮直接拨出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，委案详情，电话访谈弹出框，点击拨打按钮后，按钮置灰，并在拨打和挂断按钮中间显示：接通中，通话中xx秒，已结束，共拨打xx秒，电话录音上传中。因为无法挂断电话，上传不了电话催收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉工作台中的委案列表上面虽然没有筛选项，但是还是用了其他页面中的删选项，问题59好像就是因为在委案信息维护页面，筛选项选择了状态为已退案的，导致回到我的工作台页面后，这些表格里面还是没有东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，在委案详情页面，提交完委案咨询后，点击我的工作台，待回复委案咨询数字不刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫中心，每个tab上面的一行话是当时需求需要说明，现在可以删掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫中心，呼出电话，点击委案编码，弹出测试对话框4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个页面数据是一次将多个Tab的数据都加载了，所以tab切换不需要重新获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个得跟实际才能调，因为目前回调事件都没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传附件需要开启ftp服务器，默认是连得我的办公机器的ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车贷：客户手机；信用卡：手机号码；信贷：手机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员登录，点击右上角的未接来电通知后，呼叫中心里面的呼叫记录都没了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫中心，关联委案失败，关联失败后，呼叫中心的未关联委案的电话记录消失了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>业务员登录，委案信息查询和维护需要增加查询按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员登录，未按信息查询和维护，筛选项为已结案时，查询不到已退案的委案。另外，已结案应该叫已退案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员登录，我的工作台，未结案的委案修改为未完成的委案，目前工作中的委案不能再这个tab页中显示出来，虽然有工作中的委案，但是表格里为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员登录，委案详情工作汇报不稳定，不传附件问题不大，只要有附件就失败。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员登录，委案详情，电话访谈弹出框，电话号码默认为委案联系人的号码，这个需要针对三类委案我们确定下取哪个字段，如果业务员不修改电话号，那么点击呼叫按钮直接拨出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员登录，委案详情，电话访谈弹出框，点击拨打按钮后，按钮置灰，并在拨打和挂断按钮中间显示：接通中，通话中xx秒，已结束，共拨打xx秒，电话录音上传中。因为无法挂断电话，上传不了电话催收。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感觉工作台中的委案列表上面虽然没有筛选项，但是还是用了其他页面中的删选项，问题59好像就是因为在委案信息维护页面，筛选项选择了状态为已退案的，导致回到我的工作台页面后，这些表格里面还是没有东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员登录，在委案详情页面，提交完委案咨询后，点击我的工作台，待回复委案咨询数字不刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫中心，每个tab上面的一行话是当时需求需要说明，现在可以删掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫中心，呼出电话，点击委案编码，弹出测试对话框4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个页面数据是一次将多个Tab的数据都加载了，所以tab切换不需要重新获取数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个得跟实际才能调，因为目前回调事件都没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传附件需要开启ftp服务器，默认是连得我的办公机器的ftp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车贷：客户手机；信用卡：手机号码；信贷：手机。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员登录，点击右上角的未接来电通知后，呼叫中心里面的呼叫记录都没了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫中心，关联委案失败，关联失败后，呼叫中心的未关联委案的电话记录消失了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +463,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:C63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1444,7 +1444,7 @@
         <v>58</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C58" s="12"/>
     </row>
@@ -1470,7 +1470,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="12"/>
     </row>
@@ -1479,7 +1479,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="12"/>
     </row>
@@ -1488,10 +1488,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -1499,10 +1499,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -1510,10 +1510,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -1521,7 +1521,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="12"/>
     </row>
@@ -1530,7 +1530,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="12"/>
     </row>
@@ -1539,7 +1539,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="12"/>
     </row>
@@ -1548,7 +1548,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="12"/>
     </row>
@@ -1557,7 +1557,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="12"/>
     </row>
@@ -1566,7 +1566,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="12"/>
     </row>

--- a/doc/bug.xlsx
+++ b/doc/bug.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bug" sheetId="1" r:id="rId1"/>
+    <sheet name="需求变更" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>委案详情的工作记录需要记录具体的时间，精确到分时秒</t>
   </si>
@@ -306,6 +307,14 @@
   </si>
   <si>
     <t>业务员登录，委案信息查询和维护需要增加查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种委案联系人都为10个，在委案详情页面增加修改联系人信息的按钮，点击按钮后，弹出提示框，显示10个联系人的信息，分别为联系人姓名、关系、电话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨打电话对话框，电话号的地方需要有下拉列表，可以选择某一个联系人的电话，也可以直接填写电话号。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +351,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -424,6 +439,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -463,7 +484,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -798,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1574,7 +1595,9 @@
       <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="C70" s="10"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1667,4 +1690,256 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="88.5" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>